--- a/directory/templates/template-attendance.xlsx
+++ b/directory/templates/template-attendance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\attendance\directory\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F6B615-47F7-47DC-9939-536D065576CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0096FC1A-2636-4A1A-87EA-04449785828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>NO</t>
   </si>
@@ -63,22 +63,16 @@
     <t>[nama_status]</t>
   </si>
   <si>
-    <t>DEPARTEMEN</t>
-  </si>
-  <si>
-    <t>[pegawai_departemen]</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>SIMABSEN | ABSEN {status}</t>
   </si>
   <si>
-    <t>[absen_id]</t>
-  </si>
-  <si>
     <t>[tanggal_absen]</t>
+  </si>
+  <si>
+    <t>[nrp]</t>
+  </si>
+  <si>
+    <t>NRP</t>
   </si>
 </sst>
 </file>
@@ -210,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -259,20 +253,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -284,6 +265,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,35 +608,34 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -656,15 +655,15 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
@@ -692,7 +691,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="20"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -720,7 +719,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="20"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -747,7 +746,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="20"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -777,7 +776,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="20"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -804,7 +803,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="21"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -824,31 +823,29 @@
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="H8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="22"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -872,27 +869,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="15"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -920,7 +915,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="23"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -940,7 +935,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="B1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
